--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,27 @@
   </si>
   <si>
     <t>Prefab</t>
+  </si>
+  <si>
+    <t>HarmRange</t>
+  </si>
+  <si>
+    <t>RepelRnage</t>
+  </si>
+  <si>
+    <t>DeviationAngleRange</t>
+  </si>
+  <si>
+    <t>SpeedRange</t>
+  </si>
+  <si>
+    <t>LifeTimeRange</t>
+  </si>
+  <si>
+    <t>DistanceRange</t>
+  </si>
+  <si>
+    <t>UseGravity</t>
   </si>
   <si>
     <t>子弹id</t>
@@ -38,12 +59,46 @@
   <si>
     <t>子弹类型：
 实体子弹：1
-激光子弹：2</t>
+激光子弹：2
+纯伤害：3</t>
   </si>
   <si>
     <t>绑定子弹预制体，根据Type填不同的参数
 Type为1，填ActivityBase表Id
-Type为2，填场景路径</t>
+Type为2，填场景路径
+Type为3，不填</t>
+  </si>
+  <si>
+    <t>造成的伤害区间
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>造成伤害后击退值区间
+如果发射子弹,则按每发子弹算击退
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹偏移角度区间
+用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹初速度区间
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹最大存在时间，单位：秒
+如果值小于等于0时子弹无限期存在
+只有Type为1时才需要填写
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹最大飞行距离区间
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>是否开启重力下坠
+只有Type为1时才需要填写</t>
   </si>
   <si>
     <t>string</t>
@@ -52,6 +107,15 @@
     <t>int</t>
   </si>
   <si>
+    <t>[int]</t>
+  </si>
+  <si>
+    <t>[float]</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -61,6 +125,24 @@
     <t>bullet0001</t>
   </si>
   <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[320,350]</t>
+  </si>
+  <si>
+    <t>[-1]</t>
+  </si>
+  <si>
+    <t>[300,400]</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -70,6 +152,18 @@
     <t>bullet0002</t>
   </si>
   <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[-10,10]</t>
+  </si>
+  <si>
+    <t>[280,380]</t>
+  </si>
+  <si>
+    <t>[200,250]</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
@@ -79,10 +173,55 @@
     <t>bullet0003</t>
   </si>
   <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[320,340]</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>bullet0004</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[30,30]</t>
+  </si>
+  <si>
+    <t>[270,360]</t>
+  </si>
+  <si>
     <t>激光1</t>
   </si>
   <si>
     <t>res://prefab/bullet/laser/Laser0001.tscn</t>
+  </si>
+  <si>
+    <t>[300,330]</t>
+  </si>
+  <si>
+    <t>刀伤害</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[150]</t>
+  </si>
+  <si>
+    <t>[350]</t>
+  </si>
+  <si>
+    <t>[35]</t>
   </si>
 </sst>
 </file>
@@ -1022,23 +1161,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.125" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="9" style="2"/>
+    <col min="4" max="4" width="42.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.7272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4545454545455" style="1" customWidth="1"/>
+    <col min="8" max="9" width="31.7272727272727" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.3636363636364" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4545454545455" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="1"/>
+    <col min="16" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:4">
+    <row r="1" ht="33" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,89 +1195,297 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="116" customHeight="1" spans="1:4">
+    <row r="2" ht="122" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="64" customHeight="1" spans="1:4">
+    <row r="3" ht="64" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1" spans="1:4">
+    <row r="4" ht="28" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="19" customHeight="1" spans="1:4">
+    <row r="5" ht="26" customHeight="1" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" ht="19" customHeight="1" spans="1:4">
+    <row r="6" ht="29" customHeight="1" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7" ht="26" customHeight="1" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:10">
+      <c r="A8" s="1">
         <v>1001</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1504,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1169,7 +1521,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>[300,330]</t>
+  </si>
+  <si>
+    <t>[600,600]</t>
   </si>
   <si>
     <t>刀伤害</t>
@@ -1164,7 +1167,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1456,7 +1459,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:10">
@@ -1464,28 +1467,28 @@
         <v>2001</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="13155"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,25 +225,25 @@
     <t>bullet0004</t>
   </si>
   <si>
+    <t>[180,180]</t>
+  </si>
+  <si>
+    <t>[270,360]</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
+    <t>[999]</t>
+  </si>
+  <si>
+    <t>激光1</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/laser/Laser0001.tscn</t>
+  </si>
+  <si>
     <t>[5]</t>
-  </si>
-  <si>
-    <t>[180,180]</t>
-  </si>
-  <si>
-    <t>[270,360]</t>
-  </si>
-  <si>
-    <t>[70]</t>
-  </si>
-  <si>
-    <t>[999]</t>
-  </si>
-  <si>
-    <t>激光1</t>
-  </si>
-  <si>
-    <t>res://prefab/bullet/laser/Laser0001.tscn</t>
   </si>
   <si>
     <t>[300,330]</t>
@@ -1209,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1551,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>38</v>
@@ -1560,22 +1560,22 @@
         <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="N8" s="1" t="b">
         <v>1</v>
@@ -1590,16 +1590,16 @@
         <v>1001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="21915" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +46,7 @@
     <t>HarmRange</t>
   </si>
   <si>
-    <t>RepelRnage</t>
+    <t>RepelRange</t>
   </si>
   <si>
     <t>DeviationAngleRange</t>
@@ -267,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1210,7 +1223,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21915" windowHeight="13485"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -70,7 +57,7 @@
     <t>BounceCount</t>
   </si>
   <si>
-    <t>StrikeDestroy</t>
+    <t>Penetration</t>
   </si>
   <si>
     <t>子弹id</t>
@@ -133,7 +120,9 @@
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>在还有剩余反弹次数时撞到玩家时是否销毁子弹</t>
+    <t>子弹穿透次数区间
+只有Type为1时有效
+格式为[value]或者[min,max]</t>
   </si>
   <si>
     <t>string</t>
@@ -238,6 +227,9 @@
     <t>bullet0004</t>
   </si>
   <si>
+    <t>[150]</t>
+  </si>
+  <si>
     <t>[180,180]</t>
   </si>
   <si>
@@ -250,6 +242,9 @@
     <t>[999]</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
     <t>激光1</t>
   </si>
   <si>
@@ -259,6 +254,9 @@
     <t>[5]</t>
   </si>
   <si>
+    <t>[40]</t>
+  </si>
+  <si>
     <t>[300,330]</t>
   </si>
   <si>
@@ -266,9 +264,6 @@
   </si>
   <si>
     <t>[25]</t>
-  </si>
-  <si>
-    <t>[150]</t>
   </si>
   <si>
     <t>[350]</t>
@@ -280,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1223,7 +1218,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1239,7 +1234,7 @@
     <col min="11" max="11" width="13.4583333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:14">
@@ -1371,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:14">
@@ -1414,8 +1409,8 @@
       <c r="M4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="1" t="b">
-        <v>1</v>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:14">
@@ -1458,8 +1453,8 @@
       <c r="M5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:14">
@@ -1502,8 +1497,8 @@
       <c r="M6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:14">
@@ -1546,8 +1541,8 @@
       <c r="M7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:14">
@@ -1567,61 +1562,61 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="1" t="b">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:14">
+    <row r="10" ht="25" customHeight="1" spans="1:13">
       <c r="A10" s="1">
         <v>1001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>40</v>
@@ -1631,9 +1626,6 @@
       </c>
       <c r="M10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="N10" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1"/>
@@ -1642,28 +1634,28 @@
         <v>2001</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>DistanceRange</t>
-  </si>
-  <si>
-    <t>UseGravity</t>
   </si>
   <si>
     <t>VerticalSpeed</t>
@@ -106,10 +103,6 @@
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>是否开启重力下坠
-只有Type为1时有效</t>
-  </si>
-  <si>
     <t>初始纵轴速度区间
 只有Type为1时有效
 格式为[value]或者[min,max]</t>
@@ -137,9 +130,6 @@
     <t>[float]</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -242,16 +232,25 @@
     <t>[999]</t>
   </si>
   <si>
-    <t>[1]</t>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>敌方专用子弹</t>
+  </si>
+  <si>
+    <t>bullet0005</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[100,100]</t>
   </si>
   <si>
     <t>激光1</t>
   </si>
   <si>
     <t>res://prefab/bullet/laser/Laser0001.tscn</t>
-  </si>
-  <si>
-    <t>[5]</t>
   </si>
   <si>
     <t>[40]</t>
@@ -1215,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="D10:G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,13 +1230,12 @@
     <col min="7" max="7" width="30.4583333333333" style="1" customWidth="1"/>
     <col min="8" max="9" width="31.725" style="1" customWidth="1"/>
     <col min="10" max="10" width="32.3666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4583333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:14">
+    <row r="1" ht="33" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,390 +1269,407 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" ht="122" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="122" customHeight="1" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
+    <row r="3" ht="64" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" ht="64" customHeight="1" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="4" ht="28" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="26" customHeight="1" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:13">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="1:14">
-      <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="b">
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" ht="26" customHeight="1" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="10" ht="26" customHeight="1" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:13">
-      <c r="A10" s="1">
+    <row r="11" ht="25" customHeight="1" spans="1:12">
+      <c r="A11" s="1">
         <v>1001</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>38</v>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1"/>
-    <row r="12" ht="20" customHeight="1" spans="1:10">
-      <c r="A12" s="1">
+    <row r="12" ht="25" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="1">
         <v>2001</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>76</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>[100,100]</t>
+  </si>
+  <si>
+    <t>[170]</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1216,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1228,8 +1231,9 @@
     <col min="4" max="4" width="42.9083333333333" style="1" customWidth="1"/>
     <col min="5" max="6" width="22.725" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.4583333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="31.725" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.3666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.725" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
@@ -1595,7 +1599,7 @@
         <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>35</v>
@@ -1613,25 +1617,25 @@
         <v>1001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
@@ -1649,13 +1653,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>59</v>
@@ -1664,13 +1668,13 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -166,58 +166,58 @@
     <t>bullet0002</t>
   </si>
   <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[-10,10]</t>
+  </si>
+  <si>
+    <t>[280,380]</t>
+  </si>
+  <si>
+    <t>[200,250]</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>子弹3</t>
+  </si>
+  <si>
+    <t>bullet0003</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[320,340]</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>狙击枪子弹</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[600,600]</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>bullet0004</t>
+  </si>
+  <si>
     <t>[30]</t>
   </si>
   <si>
-    <t>[-10,10]</t>
-  </si>
-  <si>
-    <t>[280,380]</t>
-  </si>
-  <si>
-    <t>[200,250]</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>子弹3</t>
-  </si>
-  <si>
-    <t>bullet0003</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[320,340]</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>狙击枪子弹</t>
-  </si>
-  <si>
-    <t>[200]</t>
-  </si>
-  <si>
-    <t>[600,600]</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>榴弹炮</t>
-  </si>
-  <si>
-    <t>bullet0004</t>
-  </si>
-  <si>
-    <t>[150]</t>
+    <t>[85]</t>
   </si>
   <si>
     <t>[180,180]</t>
@@ -256,7 +256,7 @@
     <t>res://prefab/bullet/laser/Laser0001.tscn</t>
   </si>
   <si>
-    <t>[40]</t>
+    <t>[35]</t>
   </si>
   <si>
     <t>[300,330]</t>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>[350]</t>
-  </si>
-  <si>
-    <t>[35]</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1461,13 +1458,13 @@
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>37</v>
@@ -1487,10 +1484,10 @@
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1502,19 +1499,19 @@
         <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>35</v>
@@ -1528,19 +1525,19 @@
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:13">
       <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>59</v>
@@ -1584,7 +1581,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
@@ -1641,7 +1638,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>35</v>
@@ -1662,7 +1659,7 @@
         <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>35</v>
@@ -1674,7 +1671,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -235,7 +248,7 @@
     <t>0006</t>
   </si>
   <si>
-    <t>敌方专用子弹</t>
+    <t>抛物线粘液子弹</t>
   </si>
   <si>
     <t>bullet0005</t>
@@ -274,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1217,7 +1230,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>[70]</t>
-  </si>
-  <si>
-    <t>[999]</t>
   </si>
   <si>
     <t>0006</t>
@@ -1229,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1571,7 +1568,7 @@
         <v>62</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>35</v>
@@ -1579,19 +1576,19 @@
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>58</v>
@@ -1600,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>37</v>
@@ -1609,7 +1606,7 @@
         <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>35</v>
@@ -1627,25 +1624,25 @@
         <v>1001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
@@ -1663,13 +1660,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>62</v>
@@ -1678,13 +1675,13 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
